--- a/temp.xlsx
+++ b/temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alnem\Downloads\Merge Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ecxel_merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9276C-31AC-4005-B3F7-6F1D5B1D1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E639E78-0A78-4A70-8F2C-5922957C3898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,16 +556,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="57" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140:F180"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -896,14 +896,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="3"/>
@@ -929,7 +929,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <f>SUM(C3:E3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
@@ -939,7 +942,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F44" si="0">SUM(C4:E4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
@@ -949,7 +955,10 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
@@ -959,7 +968,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
@@ -969,7 +981,10 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
@@ -979,7 +994,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
@@ -989,7 +1007,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
@@ -999,7 +1020,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
@@ -1009,10 +1033,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1021,150 +1048,195 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A26" s="7"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1173,150 +1245,195 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A34" s="6"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A35" s="6"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A36" s="6"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A37" s="6"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A38" s="6"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A39" s="6"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A40" s="6"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A41" s="7"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1325,17 +1442,23 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A43" s="7"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A44" s="4"/>
@@ -1343,17 +1466,17 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A51" s="3"/>
@@ -1393,7 +1516,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3">
-        <f t="shared" ref="F53:F90" si="0">SUM(C53:E53)</f>
+        <f t="shared" ref="F53:F90" si="1">SUM(C53:E53)</f>
         <v>0</v>
       </c>
     </row>
@@ -1406,7 +1529,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1419,7 +1542,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1432,7 +1555,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1445,7 +1568,7 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1581,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1471,12 +1594,12 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -1486,12 +1609,12 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A61" s="6"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="3" t="s">
         <v>16</v>
       </c>
@@ -1499,12 +1622,12 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A62" s="6"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="3" t="s">
         <v>17</v>
       </c>
@@ -1512,12 +1635,12 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A63" s="6"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
@@ -1525,12 +1648,12 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A64" s="6"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="3" t="s">
         <v>19</v>
       </c>
@@ -1538,12 +1661,12 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A65" s="6"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="3" t="s">
         <v>20</v>
       </c>
@@ -1551,12 +1674,12 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A66" s="6"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="3" t="s">
         <v>21</v>
       </c>
@@ -1564,12 +1687,12 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A67" s="6"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="3" t="s">
         <v>22</v>
       </c>
@@ -1577,12 +1700,12 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A68" s="6"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="3" t="s">
         <v>23</v>
       </c>
@@ -1590,12 +1713,12 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A69" s="6"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="3" t="s">
         <v>24</v>
       </c>
@@ -1603,12 +1726,12 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A70" s="6"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="3" t="s">
         <v>25</v>
       </c>
@@ -1616,12 +1739,12 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A71" s="6"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="3" t="s">
         <v>26</v>
       </c>
@@ -1629,12 +1752,12 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A72" s="6"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="3" t="s">
         <v>27</v>
       </c>
@@ -1642,12 +1765,12 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A73" s="6"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="3" t="s">
         <v>28</v>
       </c>
@@ -1655,12 +1778,12 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A74" s="7"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="3" t="s">
         <v>29</v>
       </c>
@@ -1668,12 +1791,12 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -1683,12 +1806,12 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A76" s="6"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="3" t="s">
         <v>32</v>
       </c>
@@ -1696,12 +1819,12 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A77" s="6"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="3" t="s">
         <v>33</v>
       </c>
@@ -1709,12 +1832,12 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A78" s="6"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="3" t="s">
         <v>34</v>
       </c>
@@ -1722,12 +1845,12 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A79" s="6"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="3" t="s">
         <v>35</v>
       </c>
@@ -1735,12 +1858,12 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A80" s="6"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="3" t="s">
         <v>36</v>
       </c>
@@ -1748,12 +1871,12 @@
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A81" s="6"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="3" t="s">
         <v>37</v>
       </c>
@@ -1761,12 +1884,12 @@
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A82" s="6"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="3" t="s">
         <v>38</v>
       </c>
@@ -1774,12 +1897,12 @@
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A83" s="6"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="3" t="s">
         <v>39</v>
       </c>
@@ -1787,12 +1910,12 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A84" s="6"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="3" t="s">
         <v>40</v>
       </c>
@@ -1800,12 +1923,12 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A85" s="6"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="3" t="s">
         <v>41</v>
       </c>
@@ -1813,12 +1936,12 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A86" s="6"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="3" t="s">
         <v>42</v>
       </c>
@@ -1826,12 +1949,12 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A87" s="6"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="3" t="s">
         <v>43</v>
       </c>
@@ -1839,12 +1962,12 @@
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A88" s="6"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="3" t="s">
         <v>44</v>
       </c>
@@ -1852,12 +1975,12 @@
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A89" s="7"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="3" t="s">
         <v>45</v>
       </c>
@@ -1865,7 +1988,7 @@
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1880,7 +2003,7 @@
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1893,14 +2016,14 @@
       <c r="F91" s="4"/>
     </row>
     <row r="97" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="10"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A98" s="3"/>
@@ -1940,12 +2063,12 @@
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3">
-        <f t="shared" ref="F100:F131" si="1">SUM(C100:E100)</f>
+        <f t="shared" ref="F100:F131" si="2">SUM(C100:E100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -1955,12 +2078,12 @@
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A102" s="6"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="3" t="s">
         <v>16</v>
       </c>
@@ -1968,12 +2091,12 @@
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A103" s="6"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="3" t="s">
         <v>17</v>
       </c>
@@ -1981,12 +2104,12 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A104" s="6"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="3" t="s">
         <v>18</v>
       </c>
@@ -1994,12 +2117,12 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A105" s="6"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="3" t="s">
         <v>19</v>
       </c>
@@ -2007,12 +2130,12 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A106" s="6"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="3" t="s">
         <v>20</v>
       </c>
@@ -2020,12 +2143,12 @@
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A107" s="6"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="3" t="s">
         <v>21</v>
       </c>
@@ -2033,12 +2156,12 @@
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A108" s="6"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="3" t="s">
         <v>22</v>
       </c>
@@ -2046,12 +2169,12 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A109" s="6"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="3" t="s">
         <v>23</v>
       </c>
@@ -2059,12 +2182,12 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A110" s="6"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="3" t="s">
         <v>24</v>
       </c>
@@ -2072,12 +2195,12 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A111" s="6"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="3" t="s">
         <v>25</v>
       </c>
@@ -2085,12 +2208,12 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A112" s="6"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="3" t="s">
         <v>26</v>
       </c>
@@ -2098,12 +2221,12 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A113" s="6"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="3" t="s">
         <v>27</v>
       </c>
@@ -2111,12 +2234,12 @@
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A114" s="6"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="3" t="s">
         <v>28</v>
       </c>
@@ -2124,12 +2247,12 @@
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A115" s="7"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="3" t="s">
         <v>29</v>
       </c>
@@ -2137,12 +2260,12 @@
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -2152,12 +2275,12 @@
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A117" s="6"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="3" t="s">
         <v>32</v>
       </c>
@@ -2165,12 +2288,12 @@
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A118" s="6"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="3" t="s">
         <v>33</v>
       </c>
@@ -2178,12 +2301,12 @@
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A119" s="6"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="3" t="s">
         <v>34</v>
       </c>
@@ -2191,12 +2314,12 @@
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A120" s="6"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="3" t="s">
         <v>35</v>
       </c>
@@ -2204,12 +2327,12 @@
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A121" s="6"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="3" t="s">
         <v>36</v>
       </c>
@@ -2217,12 +2340,12 @@
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A122" s="6"/>
+      <c r="A122" s="9"/>
       <c r="B122" s="3" t="s">
         <v>37</v>
       </c>
@@ -2230,12 +2353,12 @@
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A123" s="6"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="3" t="s">
         <v>38</v>
       </c>
@@ -2243,12 +2366,12 @@
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A124" s="6"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="3" t="s">
         <v>39</v>
       </c>
@@ -2256,12 +2379,12 @@
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A125" s="6"/>
+      <c r="A125" s="9"/>
       <c r="B125" s="3" t="s">
         <v>40</v>
       </c>
@@ -2269,12 +2392,12 @@
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A126" s="6"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="3" t="s">
         <v>41</v>
       </c>
@@ -2282,12 +2405,12 @@
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A127" s="6"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="3" t="s">
         <v>42</v>
       </c>
@@ -2295,12 +2418,12 @@
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A128" s="6"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
@@ -2308,12 +2431,12 @@
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A129" s="6"/>
+      <c r="A129" s="9"/>
       <c r="B129" s="3" t="s">
         <v>44</v>
       </c>
@@ -2321,12 +2444,12 @@
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A130" s="7"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="3" t="s">
         <v>45</v>
       </c>
@@ -2334,7 +2457,7 @@
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2349,7 +2472,7 @@
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2362,14 +2485,14 @@
       <c r="F132" s="4"/>
     </row>
     <row r="138" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="10"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="7"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A139" s="3"/>
@@ -2409,7 +2532,7 @@
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3">
-        <f t="shared" ref="F141:F180" si="2">SUM(C141:E141)</f>
+        <f t="shared" ref="F141:F180" si="3">SUM(C141:E141)</f>
         <v>0</v>
       </c>
     </row>
@@ -2422,7 +2545,7 @@
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2435,7 +2558,7 @@
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2448,7 +2571,7 @@
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2461,7 +2584,7 @@
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2474,7 +2597,7 @@
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +2610,7 @@
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2623,12 @@
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -2515,12 +2638,12 @@
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A150" s="6"/>
+      <c r="A150" s="9"/>
       <c r="B150" s="3" t="s">
         <v>16</v>
       </c>
@@ -2528,12 +2651,12 @@
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A151" s="6"/>
+      <c r="A151" s="9"/>
       <c r="B151" s="3" t="s">
         <v>17</v>
       </c>
@@ -2541,12 +2664,12 @@
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A152" s="6"/>
+      <c r="A152" s="9"/>
       <c r="B152" s="3" t="s">
         <v>18</v>
       </c>
@@ -2554,12 +2677,12 @@
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A153" s="6"/>
+      <c r="A153" s="9"/>
       <c r="B153" s="3" t="s">
         <v>19</v>
       </c>
@@ -2567,12 +2690,12 @@
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A154" s="6"/>
+      <c r="A154" s="9"/>
       <c r="B154" s="3" t="s">
         <v>20</v>
       </c>
@@ -2580,12 +2703,12 @@
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A155" s="6"/>
+      <c r="A155" s="9"/>
       <c r="B155" s="3" t="s">
         <v>21</v>
       </c>
@@ -2593,12 +2716,12 @@
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A156" s="6"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="3" t="s">
         <v>22</v>
       </c>
@@ -2606,12 +2729,12 @@
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A157" s="6"/>
+      <c r="A157" s="9"/>
       <c r="B157" s="3" t="s">
         <v>23</v>
       </c>
@@ -2619,12 +2742,12 @@
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A158" s="6"/>
+      <c r="A158" s="9"/>
       <c r="B158" s="3" t="s">
         <v>24</v>
       </c>
@@ -2632,12 +2755,12 @@
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A159" s="6"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="3" t="s">
         <v>25</v>
       </c>
@@ -2645,12 +2768,12 @@
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A160" s="6"/>
+      <c r="A160" s="9"/>
       <c r="B160" s="3" t="s">
         <v>26</v>
       </c>
@@ -2658,12 +2781,12 @@
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A161" s="6"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="3" t="s">
         <v>27</v>
       </c>
@@ -2671,12 +2794,12 @@
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A162" s="6"/>
+      <c r="A162" s="9"/>
       <c r="B162" s="3" t="s">
         <v>28</v>
       </c>
@@ -2684,12 +2807,12 @@
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A163" s="7"/>
+      <c r="A163" s="10"/>
       <c r="B163" s="3" t="s">
         <v>29</v>
       </c>
@@ -2697,12 +2820,12 @@
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -2712,12 +2835,12 @@
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A165" s="6"/>
+      <c r="A165" s="9"/>
       <c r="B165" s="3" t="s">
         <v>32</v>
       </c>
@@ -2725,12 +2848,12 @@
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A166" s="6"/>
+      <c r="A166" s="9"/>
       <c r="B166" s="3" t="s">
         <v>33</v>
       </c>
@@ -2738,12 +2861,12 @@
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A167" s="6"/>
+      <c r="A167" s="9"/>
       <c r="B167" s="3" t="s">
         <v>34</v>
       </c>
@@ -2751,12 +2874,12 @@
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A168" s="6"/>
+      <c r="A168" s="9"/>
       <c r="B168" s="3" t="s">
         <v>35</v>
       </c>
@@ -2764,12 +2887,12 @@
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A169" s="6"/>
+      <c r="A169" s="9"/>
       <c r="B169" s="3" t="s">
         <v>36</v>
       </c>
@@ -2777,12 +2900,12 @@
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A170" s="6"/>
+      <c r="A170" s="9"/>
       <c r="B170" s="3" t="s">
         <v>37</v>
       </c>
@@ -2790,12 +2913,12 @@
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A171" s="6"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="3" t="s">
         <v>38</v>
       </c>
@@ -2803,12 +2926,12 @@
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A172" s="6"/>
+      <c r="A172" s="9"/>
       <c r="B172" s="3" t="s">
         <v>39</v>
       </c>
@@ -2816,12 +2939,12 @@
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A173" s="6"/>
+      <c r="A173" s="9"/>
       <c r="B173" s="3" t="s">
         <v>40</v>
       </c>
@@ -2829,12 +2952,12 @@
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A174" s="6"/>
+      <c r="A174" s="9"/>
       <c r="B174" s="3" t="s">
         <v>41</v>
       </c>
@@ -2842,12 +2965,12 @@
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A175" s="6"/>
+      <c r="A175" s="9"/>
       <c r="B175" s="3" t="s">
         <v>42</v>
       </c>
@@ -2855,12 +2978,12 @@
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A176" s="6"/>
+      <c r="A176" s="9"/>
       <c r="B176" s="3" t="s">
         <v>43</v>
       </c>
@@ -2868,12 +2991,12 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A177" s="6"/>
+      <c r="A177" s="9"/>
       <c r="B177" s="3" t="s">
         <v>44</v>
       </c>
@@ -2881,12 +3004,12 @@
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A178" s="7"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="3" t="s">
         <v>45</v>
       </c>
@@ -2894,12 +3017,12 @@
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -2909,12 +3032,12 @@
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A180" s="7"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="3" t="s">
         <v>47</v>
       </c>
@@ -2922,7 +3045,7 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2977,11 +3100,11 @@
       <c r="A1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="2"/>
@@ -3054,7 +3177,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3067,7 +3190,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3080,7 +3203,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3093,7 +3216,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3106,7 +3229,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -3119,7 +3242,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -3132,7 +3255,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3145,7 +3268,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -3158,7 +3281,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -3171,7 +3294,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +3307,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3197,7 +3320,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3210,7 +3333,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3223,7 +3346,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A20" s="7"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3251,7 +3374,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -3264,7 +3387,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -3277,7 +3400,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
@@ -3290,7 +3413,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
@@ -3303,7 +3426,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -3316,7 +3439,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3329,7 +3452,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -3342,7 +3465,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
@@ -3355,7 +3478,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -3368,7 +3491,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
@@ -3381,7 +3504,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
@@ -3394,7 +3517,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
@@ -3407,7 +3530,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A34" s="6"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
@@ -3420,7 +3543,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A35" s="7"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
@@ -3448,7 +3571,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A37" s="7"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
@@ -3472,11 +3595,11 @@
       <c r="A44" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A45" s="2"/>
@@ -3549,7 +3672,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A50" s="6"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="2" t="s">
         <v>16</v>
       </c>
@@ -3562,7 +3685,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A51" s="6"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="2" t="s">
         <v>17</v>
       </c>
@@ -3575,7 +3698,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A52" s="6"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="2" t="s">
         <v>18</v>
       </c>
@@ -3588,7 +3711,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A53" s="6"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>19</v>
       </c>
@@ -3601,7 +3724,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A54" s="6"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="2" t="s">
         <v>20</v>
       </c>
@@ -3614,7 +3737,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A55" s="6"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2" t="s">
         <v>21</v>
       </c>
@@ -3627,7 +3750,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A56" s="6"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="2" t="s">
         <v>22</v>
       </c>
@@ -3640,7 +3763,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A57" s="6"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
@@ -3653,7 +3776,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A58" s="6"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
@@ -3666,7 +3789,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A59" s="6"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="2" t="s">
         <v>25</v>
       </c>
@@ -3679,7 +3802,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A60" s="6"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="2" t="s">
         <v>26</v>
       </c>
@@ -3692,7 +3815,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A61" s="6"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="2" t="s">
         <v>27</v>
       </c>
@@ -3705,7 +3828,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A62" s="6"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
@@ -3718,7 +3841,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A63" s="7"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3746,7 +3869,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A65" s="6"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="2" t="s">
         <v>32</v>
       </c>
@@ -3759,7 +3882,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A66" s="6"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>33</v>
       </c>
@@ -3772,7 +3895,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A67" s="6"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
@@ -3785,7 +3908,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A68" s="6"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="2" t="s">
         <v>35</v>
       </c>
@@ -3798,7 +3921,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A69" s="6"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="2" t="s">
         <v>36</v>
       </c>
@@ -3811,7 +3934,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A70" s="6"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="2" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +3947,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A71" s="6"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="2" t="s">
         <v>38</v>
       </c>
@@ -3837,7 +3960,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A72" s="6"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="2" t="s">
         <v>39</v>
       </c>
@@ -3850,7 +3973,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A73" s="6"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="2" t="s">
         <v>40</v>
       </c>
@@ -3863,7 +3986,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A74" s="6"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="2" t="s">
         <v>41</v>
       </c>
@@ -3876,7 +3999,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A75" s="6"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="2" t="s">
         <v>42</v>
       </c>
@@ -3889,7 +4012,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A76" s="6"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="2" t="s">
         <v>43</v>
       </c>
@@ -3902,7 +4025,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A77" s="6"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="2" t="s">
         <v>44</v>
       </c>
@@ -3915,7 +4038,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A78" s="7"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="2" t="s">
         <v>45</v>
       </c>
@@ -3954,11 +4077,11 @@
       <c r="A86" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A87" s="2"/>
@@ -4031,7 +4154,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A92" s="6"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
@@ -4044,7 +4167,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A93" s="6"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="2" t="s">
         <v>17</v>
       </c>
@@ -4057,7 +4180,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A94" s="6"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="2" t="s">
         <v>18</v>
       </c>
@@ -4070,7 +4193,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A95" s="6"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="2" t="s">
         <v>19</v>
       </c>
@@ -4083,7 +4206,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A96" s="6"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="2" t="s">
         <v>20</v>
       </c>
@@ -4096,7 +4219,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A97" s="6"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
@@ -4109,7 +4232,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A98" s="6"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="2" t="s">
         <v>22</v>
       </c>
@@ -4122,7 +4245,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A99" s="6"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="2" t="s">
         <v>23</v>
       </c>
@@ -4135,7 +4258,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A100" s="6"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="2" t="s">
         <v>24</v>
       </c>
@@ -4148,7 +4271,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A101" s="6"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="2" t="s">
         <v>25</v>
       </c>
@@ -4161,7 +4284,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A102" s="6"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="2" t="s">
         <v>26</v>
       </c>
@@ -4174,7 +4297,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A103" s="6"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="2" t="s">
         <v>27</v>
       </c>
@@ -4187,7 +4310,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A104" s="6"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="2" t="s">
         <v>28</v>
       </c>
@@ -4200,7 +4323,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A105" s="7"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="2" t="s">
         <v>29</v>
       </c>
@@ -4228,7 +4351,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A107" s="6"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="2" t="s">
         <v>32</v>
       </c>
@@ -4241,7 +4364,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A108" s="6"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="2" t="s">
         <v>33</v>
       </c>
@@ -4254,7 +4377,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A109" s="6"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="2" t="s">
         <v>34</v>
       </c>
@@ -4267,7 +4390,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A110" s="6"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="2" t="s">
         <v>35</v>
       </c>
@@ -4280,7 +4403,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A111" s="6"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="2" t="s">
         <v>36</v>
       </c>
@@ -4293,7 +4416,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A112" s="6"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="2" t="s">
         <v>37</v>
       </c>
@@ -4306,7 +4429,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A113" s="6"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="2" t="s">
         <v>38</v>
       </c>
@@ -4319,7 +4442,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A114" s="6"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="2" t="s">
         <v>39</v>
       </c>
@@ -4332,7 +4455,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A115" s="6"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="2" t="s">
         <v>40</v>
       </c>
@@ -4345,7 +4468,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A116" s="6"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="2" t="s">
         <v>41</v>
       </c>
@@ -4358,7 +4481,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A117" s="6"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="2" t="s">
         <v>42</v>
       </c>
@@ -4371,7 +4494,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A118" s="6"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="2" t="s">
         <v>43</v>
       </c>
@@ -4384,7 +4507,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A119" s="6"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="2" t="s">
         <v>44</v>
       </c>
@@ -4397,7 +4520,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A120" s="7"/>
+      <c r="A120" s="10"/>
       <c r="B120" s="2" t="s">
         <v>45</v>
       </c>
@@ -4425,7 +4548,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A122" s="7"/>
+      <c r="A122" s="10"/>
       <c r="B122" s="2" t="s">
         <v>47</v>
       </c>
@@ -4447,17 +4570,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A49:A63"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A64:A78"/>
     <mergeCell ref="A121:A122"/>
     <mergeCell ref="A86:F86"/>
     <mergeCell ref="A6:A20"/>
     <mergeCell ref="A106:A120"/>
     <mergeCell ref="A21:A35"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A49:A63"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A64:A78"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4482,11 +4605,11 @@
       <c r="A1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="2"/>
@@ -4572,7 +4695,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -4585,7 +4708,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -4598,7 +4721,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" s="6"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4734,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" s="6"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -4624,7 +4747,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -4637,7 +4760,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -4650,7 +4773,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -4663,7 +4786,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -4676,7 +4799,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -4689,7 +4812,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -4702,7 +4825,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -4715,7 +4838,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A19" s="6"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -4728,7 +4851,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A20" s="6"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -4741,7 +4864,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A21" s="7"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -4769,7 +4892,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
@@ -4782,7 +4905,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
@@ -4795,7 +4918,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
@@ -4808,7 +4931,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
@@ -4821,7 +4944,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
@@ -4834,7 +4957,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
@@ -4847,7 +4970,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
@@ -4860,7 +4983,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
@@ -4873,7 +4996,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -4886,7 +5009,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
@@ -4899,7 +5022,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
@@ -4912,7 +5035,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A34" s="6"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
@@ -4925,7 +5048,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A35" s="6"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
@@ -4938,7 +5061,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A36" s="7"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
@@ -4977,11 +5100,11 @@
       <c r="A44" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A45" s="2"/>
@@ -5119,7 +5242,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A55" s="6"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2" t="s">
         <v>16</v>
       </c>
@@ -5132,7 +5255,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A56" s="6"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="2" t="s">
         <v>17</v>
       </c>
@@ -5145,7 +5268,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A57" s="6"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="2" t="s">
         <v>18</v>
       </c>
@@ -5158,7 +5281,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A58" s="6"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="2" t="s">
         <v>19</v>
       </c>
@@ -5171,7 +5294,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A59" s="6"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="2" t="s">
         <v>20</v>
       </c>
@@ -5184,7 +5307,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A60" s="6"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
@@ -5197,7 +5320,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A61" s="6"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="2" t="s">
         <v>22</v>
       </c>
@@ -5210,7 +5333,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A62" s="6"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
@@ -5223,7 +5346,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A63" s="6"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
@@ -5236,7 +5359,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A64" s="6"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="2" t="s">
         <v>25</v>
       </c>
@@ -5249,7 +5372,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A65" s="6"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="2" t="s">
         <v>26</v>
       </c>
@@ -5262,7 +5385,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A66" s="6"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
@@ -5275,7 +5398,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A67" s="6"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="2" t="s">
         <v>28</v>
       </c>
@@ -5288,7 +5411,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A68" s="7"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="2" t="s">
         <v>29</v>
       </c>
@@ -5316,7 +5439,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A70" s="6"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
@@ -5329,7 +5452,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A71" s="6"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="2" t="s">
         <v>33</v>
       </c>
@@ -5342,7 +5465,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A72" s="6"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
@@ -5355,7 +5478,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A73" s="6"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="2" t="s">
         <v>35</v>
       </c>
@@ -5368,7 +5491,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A74" s="6"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="2" t="s">
         <v>36</v>
       </c>
@@ -5381,7 +5504,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A75" s="6"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="2" t="s">
         <v>37</v>
       </c>
@@ -5394,7 +5517,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A76" s="6"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="2" t="s">
         <v>38</v>
       </c>
@@ -5407,7 +5530,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A77" s="6"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="2" t="s">
         <v>39</v>
       </c>
@@ -5420,7 +5543,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A78" s="6"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="2" t="s">
         <v>40</v>
       </c>
@@ -5433,7 +5556,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A79" s="6"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
@@ -5446,7 +5569,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A80" s="6"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="2" t="s">
         <v>42</v>
       </c>
@@ -5459,7 +5582,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A81" s="6"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="2" t="s">
         <v>43</v>
       </c>
@@ -5472,7 +5595,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A82" s="6"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="2" t="s">
         <v>44</v>
       </c>
@@ -5485,7 +5608,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A83" s="7"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="2" t="s">
         <v>45</v>
       </c>
@@ -5513,7 +5636,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A85" s="7"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="2" t="s">
         <v>47</v>
       </c>
@@ -5568,11 +5691,11 @@
       <c r="A1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="2"/>
@@ -5679,11 +5802,11 @@
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="2"/>
@@ -5715,7 +5838,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5728,7 +5851,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
@@ -5741,7 +5864,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
@@ -5754,7 +5877,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
@@ -5767,7 +5890,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
@@ -5780,7 +5903,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
@@ -5793,7 +5916,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" s="7"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
@@ -5819,7 +5942,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>89</v>
       </c>
@@ -5832,7 +5955,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
@@ -5845,7 +5968,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" s="6"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>91</v>
       </c>
@@ -5858,7 +5981,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" s="6"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>92</v>
       </c>
@@ -5871,7 +5994,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>93</v>
       </c>
@@ -5884,7 +6007,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" s="6"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>94</v>
       </c>
@@ -5897,7 +6020,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A18" s="6"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2" t="s">
         <v>95</v>
       </c>
@@ -5910,7 +6033,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A19" s="7"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>96</v>
       </c>
@@ -5938,7 +6061,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A21" s="6"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
@@ -5951,7 +6074,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A22" s="6"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
@@ -5964,7 +6087,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
@@ -5977,7 +6100,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A24" s="6"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
@@ -5990,7 +6113,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A25" s="6"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -6003,7 +6126,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
@@ -6016,7 +6139,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A27" s="6"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
@@ -6029,7 +6152,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A28" s="6"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
@@ -6042,7 +6165,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A29" s="6"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -6055,7 +6178,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A30" s="6"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -6068,7 +6191,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A31" s="6"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
@@ -6081,7 +6204,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
@@ -6094,7 +6217,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A33" s="6"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -6107,7 +6230,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A34" s="7"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
@@ -6135,7 +6258,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A36" s="6"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
@@ -6148,7 +6271,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A37" s="6"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
@@ -6161,7 +6284,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A38" s="6"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
@@ -6174,7 +6297,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A39" s="6"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
@@ -6187,7 +6310,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A40" s="6"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
@@ -6200,7 +6323,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A41" s="6"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
@@ -6213,7 +6336,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A42" s="6"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="2" t="s">
         <v>38</v>
       </c>
@@ -6226,7 +6349,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A43" s="6"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
@@ -6239,7 +6362,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A44" s="6"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
@@ -6252,7 +6375,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A45" s="6"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
@@ -6265,7 +6388,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A46" s="6"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
@@ -6278,7 +6401,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A47" s="6"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
@@ -6291,7 +6414,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A48" s="6"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
@@ -6304,7 +6427,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A49" s="7"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="2" t="s">
         <v>45</v>
       </c>
@@ -6332,7 +6455,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A51" s="6"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
@@ -6345,7 +6468,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A52" s="6"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="2" t="s">
         <v>100</v>
       </c>
@@ -6358,7 +6481,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A53" s="6"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>101</v>
       </c>
@@ -6371,7 +6494,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A54" s="6"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
@@ -6384,7 +6507,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A55" s="6"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2" t="s">
         <v>103</v>
       </c>
@@ -6397,7 +6520,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A56" s="7"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2" t="s">
         <v>104</v>
       </c>
@@ -6425,7 +6548,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A58" s="6"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="2" t="s">
         <v>107</v>
       </c>
@@ -6438,7 +6561,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A59" s="6"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="2" t="s">
         <v>108</v>
       </c>
@@ -6451,7 +6574,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A60" s="6"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="2" t="s">
         <v>109</v>
       </c>
@@ -6464,7 +6587,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A61" s="6"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="2" t="s">
         <v>110</v>
       </c>
@@ -6477,7 +6600,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A62" s="7"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2" t="s">
         <v>111</v>
       </c>
@@ -6505,7 +6628,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A64" s="6"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="2" t="s">
         <v>107</v>
       </c>
@@ -6518,7 +6641,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A65" s="6"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="2" t="s">
         <v>108</v>
       </c>
@@ -6531,7 +6654,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A66" s="6"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>109</v>
       </c>
@@ -6544,7 +6667,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A67" s="6"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="2" t="s">
         <v>110</v>
       </c>
@@ -6557,7 +6680,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A68" s="7"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="2" t="s">
         <v>111</v>
       </c>
@@ -6585,7 +6708,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A70" s="6"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="2" t="s">
         <v>115</v>
       </c>
@@ -6598,7 +6721,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A71" s="6"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="2" t="s">
         <v>116</v>
       </c>
@@ -6611,7 +6734,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A72" s="6"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="2" t="s">
         <v>117</v>
       </c>
@@ -6624,7 +6747,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A73" s="7"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="2" t="s">
         <v>118</v>
       </c>
@@ -6652,7 +6775,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A75" s="6"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="2" t="s">
         <v>115</v>
       </c>
@@ -6665,7 +6788,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A76" s="6"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="2" t="s">
         <v>116</v>
       </c>
@@ -6678,7 +6801,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A77" s="6"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="2" t="s">
         <v>117</v>
       </c>
@@ -6691,7 +6814,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A78" s="7"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="2" t="s">
         <v>118</v>
       </c>
